--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0834672863996401</v>
+        <v>0.08169422416529247</v>
       </c>
       <c r="J2" t="n">
-        <v>1090.683283662852</v>
+        <v>1047.420205347998</v>
       </c>
       <c r="K2" t="n">
-        <v>1582866.165913699</v>
+        <v>1406642.709965284</v>
       </c>
       <c r="L2" t="n">
-        <v>1258.120092007794</v>
+        <v>1186.019692064716</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7014067777986226</v>
+        <v>0.7346497206779568</v>
       </c>
     </row>
   </sheetData>
